--- a/file/行员管理.xlsx
+++ b/file/行员管理.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="城西支行" sheetId="1" r:id="rId1"/>
+    <sheet name="城东支行" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162912"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,8 +21,156 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="H2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+true为离职
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="H2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+true为离职
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="H2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+true为离职
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="H2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+true为离职
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
   <si>
     <t>行员代号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,19 +192,42 @@
     <t>备注</t>
   </si>
   <si>
+    <t>发放日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离职标识</t>
+  </si>
+  <si>
+    <t>绩效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>530821199111230033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-11-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>张三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>430821199111230033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手工业务量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发放日期</t>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -62,10 +236,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +253,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,12 +290,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -386,28 +576,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -416,56 +604,287 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>14102401298</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>730821</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2">
-        <v>42294</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1111111.01</v>
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2">
-        <f>I2</f>
-        <v>42258</v>
-      </c>
-      <c r="H2" s="3">
-        <f>J2-I2</f>
-        <v>36</v>
-      </c>
-      <c r="I2" s="2">
-        <v>42258</v>
-      </c>
-      <c r="J2" s="2">
-        <v>42294</v>
+        <v>11</v>
+      </c>
+      <c r="G2" s="5">
+        <v>42298</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>900</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>14102401298</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>123</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5">
+        <v>42298</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>900</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>14102401298</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>123</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5">
+        <v>42298</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>900</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>14102401298</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>123</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5">
+        <v>42298</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>900</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/file/行员管理.xlsx
+++ b/file/行员管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="城东支行" sheetId="3" r:id="rId1"/>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
   <si>
     <t>行员代号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,10 @@
   </si>
   <si>
     <t>麻子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行员名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,18 +584,20 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -664,18 +670,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -745,6 +762,17 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -815,13 +843,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -885,6 +921,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/file/行员管理.xlsx
+++ b/file/行员管理.xlsx
@@ -4,13 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="城东支行" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162912"/>
   <extLst>
@@ -35,7 +32,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -45,7 +41,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -54,17 +49,7 @@
         </r>
       </text>
     </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +57,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -82,81 +66,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-true为离职
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="H2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-true为离职
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="H2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -170,69 +79,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+  <si>
+    <t>身份证</t>
+  </si>
+  <si>
+    <t>出生日期</t>
+  </si>
+  <si>
+    <t>业务量</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>离职标识</t>
+  </si>
   <si>
     <t>行员代号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行员名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发放日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王五</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>530821199111230033</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过滤数字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>行员名称</t>
+    <t>手机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>身份证</t>
-  </si>
-  <si>
-    <t>出生日期</t>
-  </si>
-  <si>
-    <t>业务量</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>发放日期</t>
+    <t>大学本科</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>离职标识</t>
-  </si>
-  <si>
-    <t>绩效</t>
+    <t>格式解析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王五</t>
+    <t>公式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>530821199111230033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2015-11-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行员名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-11-12</t>
   </si>
 </sst>
 </file>
@@ -243,7 +171,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,9 +188,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -270,7 +196,12 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -305,7 +236,29 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.00_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -316,6 +269,31 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M3" totalsRowShown="0">
+  <tableColumns count="13">
+    <tableColumn id="1" name="行员代号" dataDxfId="6"/>
+    <tableColumn id="2" name="行员名称"/>
+    <tableColumn id="3" name="身份证" dataDxfId="5"/>
+    <tableColumn id="4" name="出生日期" dataDxfId="4"/>
+    <tableColumn id="5" name="业务量" dataDxfId="3"/>
+    <tableColumn id="6" name="备注"/>
+    <tableColumn id="7" name="发放日期" dataDxfId="2"/>
+    <tableColumn id="8" name="离职标识"/>
+    <tableColumn id="9" name="绩效" dataDxfId="1"/>
+    <tableColumn id="10" name="学历"/>
+    <tableColumn id="11" name="联系方式"/>
+    <tableColumn id="12" name="过滤数字">
+      <calculatedColumnFormula>T(K2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="格式解析" dataDxfId="0">
+      <calculatedColumnFormula>表1[[#This Row],[行员名称]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -581,72 +559,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>14102401298</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
         <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5">
         <v>42298</v>
@@ -656,6 +650,68 @@
       </c>
       <c r="I2" s="4">
         <v>900</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="str">
+        <f>T(K2)</f>
+        <v>手机</v>
+      </c>
+      <c r="M2" t="str">
+        <f>表1[[#This Row],[行员名称]]</f>
+        <v>王五</v>
+      </c>
+      <c r="N2" t="str">
+        <f>表1[[#This Row],[备注]]</f>
+        <v>存款</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>14102401298</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2">
+        <v>123</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5">
+        <v>42298</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>900</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3">
+        <v>147258369</v>
+      </c>
+      <c r="L3" t="str">
+        <f>T(K3)</f>
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <f>表1[[#This Row],[行员名称]]</f>
+        <v>张三</v>
+      </c>
+      <c r="N3" t="str">
+        <f>表1[[#This Row],[备注]]</f>
+        <v>存款</v>
       </c>
     </row>
   </sheetData>
@@ -663,265 +719,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>14102401298</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2">
-        <v>123</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5">
-        <v>42298</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>900</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>14102401298</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2">
-        <v>123</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5">
-        <v>42298</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>900</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>14102401298</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2">
-        <v>123</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5">
-        <v>42298</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>900</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>